--- a/src/assets/menu/menus.xlsx
+++ b/src/assets/menu/menus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Основное меню" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>Морепродукты</t>
   </si>
   <si>
-    <t>Закуска</t>
-  </si>
-  <si>
     <t>Мусс из печени трески</t>
   </si>
   <si>
@@ -146,6 +143,9 @@
   </si>
   <si>
     <t>Sarmientos Chardonnay. Tarapaca</t>
+  </si>
+  <si>
+    <t>Закуски</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>150</v>
@@ -554,7 +554,7 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>250</v>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>350</v>
@@ -576,7 +576,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>500</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>150</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>250</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>350</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -631,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>150</v>
@@ -642,7 +642,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>250</v>
@@ -653,7 +653,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>350</v>
@@ -664,7 +664,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>500</v>
@@ -680,7 +680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -708,10 +708,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
       </c>
       <c r="C2">
         <v>150</v>
@@ -722,10 +722,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>150</v>
@@ -736,10 +736,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>150</v>
@@ -750,10 +750,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>150</v>
@@ -764,10 +764,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6">
         <v>150</v>
@@ -778,10 +778,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>150</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>150</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9">
         <v>150</v>
@@ -820,10 +820,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10">
         <v>150</v>
@@ -834,10 +834,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11">
         <v>150</v>
@@ -848,10 +848,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12">
         <v>150</v>
@@ -862,10 +862,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>150</v>
@@ -876,10 +876,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14">
         <v>150</v>
@@ -890,10 +890,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>150</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>150</v>

--- a/src/assets/menu/menus.xlsx
+++ b/src/assets/menu/menus.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Основное меню" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
   <si>
     <t>title</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Закуски</t>
+  </si>
+  <si>
+    <t>Start Sarmientos Chardonnay. Tarapaca</t>
+  </si>
+  <si>
+    <t>Chateau Argadens Blanc end</t>
   </si>
 </sst>
 </file>
@@ -468,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -678,10 +684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,7 +787,7 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>150</v>
@@ -913,6 +919,636 @@
         <v>150</v>
       </c>
       <c r="D16">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>150</v>
+      </c>
+      <c r="D17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20">
+        <v>150</v>
+      </c>
+      <c r="D20">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>150</v>
+      </c>
+      <c r="D21">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>150</v>
+      </c>
+      <c r="D22">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23">
+        <v>150</v>
+      </c>
+      <c r="D23">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24">
+        <v>150</v>
+      </c>
+      <c r="D24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>150</v>
+      </c>
+      <c r="D25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26">
+        <v>150</v>
+      </c>
+      <c r="D26">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27">
+        <v>150</v>
+      </c>
+      <c r="D27">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>150</v>
+      </c>
+      <c r="D28">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29">
+        <v>150</v>
+      </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30">
+        <v>150</v>
+      </c>
+      <c r="D30">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>150</v>
+      </c>
+      <c r="D31">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32">
+        <v>150</v>
+      </c>
+      <c r="D32">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>150</v>
+      </c>
+      <c r="D33">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35">
+        <v>150</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>150</v>
+      </c>
+      <c r="D36">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>150</v>
+      </c>
+      <c r="D37">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>150</v>
+      </c>
+      <c r="D38">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>150</v>
+      </c>
+      <c r="D39">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>150</v>
+      </c>
+      <c r="D40">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>150</v>
+      </c>
+      <c r="D41">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>29</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>150</v>
+      </c>
+      <c r="D42">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43">
+        <v>150</v>
+      </c>
+      <c r="D43">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>150</v>
+      </c>
+      <c r="D44">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45">
+        <v>150</v>
+      </c>
+      <c r="D45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>150</v>
+      </c>
+      <c r="D46">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B47" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47">
+        <v>150</v>
+      </c>
+      <c r="D47">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>150</v>
+      </c>
+      <c r="D48">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49">
+        <v>150</v>
+      </c>
+      <c r="D49">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51">
+        <v>150</v>
+      </c>
+      <c r="D51">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52">
+        <v>150</v>
+      </c>
+      <c r="D52">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53">
+        <v>150</v>
+      </c>
+      <c r="D53">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54">
+        <v>150</v>
+      </c>
+      <c r="D54">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55">
+        <v>150</v>
+      </c>
+      <c r="D55">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56">
+        <v>150</v>
+      </c>
+      <c r="D56">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57">
+        <v>150</v>
+      </c>
+      <c r="D57">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58">
+        <v>150</v>
+      </c>
+      <c r="D58">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>23</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59">
+        <v>150</v>
+      </c>
+      <c r="D59">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>23</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60">
+        <v>150</v>
+      </c>
+      <c r="D60">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61">
+        <v>150</v>
+      </c>
+      <c r="D61">
         <v>450</v>
       </c>
     </row>

--- a/src/assets/menu/menus.xlsx
+++ b/src/assets/menu/menus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>title</t>
   </si>
@@ -142,16 +142,10 @@
     <t>Cambridge Crossing Riesling. Yalumba</t>
   </si>
   <si>
-    <t>Sarmientos Chardonnay. Tarapaca</t>
-  </si>
-  <si>
     <t>Закуски</t>
   </si>
   <si>
     <t>Start Sarmientos Chardonnay. Tarapaca</t>
-  </si>
-  <si>
-    <t>Chateau Argadens Blanc end</t>
   </si>
 </sst>
 </file>
@@ -590,7 +584,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
@@ -601,7 +595,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -612,7 +606,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -623,7 +617,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -686,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:D61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -731,27 +725,27 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="D4">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -759,41 +753,41 @@
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>150</v>
       </c>
       <c r="D5">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
+      <c r="B6" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C6">
         <v>150</v>
       </c>
       <c r="D6">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C7">
         <v>150</v>
       </c>
       <c r="D7">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -801,13 +795,13 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>150</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -815,13 +809,13 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>150</v>
       </c>
       <c r="D9">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -829,13 +823,13 @@
         <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
         <v>150</v>
       </c>
       <c r="D10">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -843,27 +837,27 @@
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>150</v>
       </c>
       <c r="D11">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <v>150</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>450</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -871,13 +865,13 @@
         <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13">
         <v>150</v>
       </c>
       <c r="D13">
-        <v>250</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -885,13 +879,13 @@
         <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>150</v>
       </c>
       <c r="D14">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -899,13 +893,13 @@
         <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15">
         <v>150</v>
       </c>
       <c r="D15">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -913,644 +907,46 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16">
         <v>150</v>
       </c>
       <c r="D16">
-        <v>450</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C17">
         <v>150</v>
       </c>
       <c r="D17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18">
-        <v>150</v>
-      </c>
-      <c r="D18">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="D19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>150</v>
-      </c>
-      <c r="D20">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21">
-        <v>150</v>
-      </c>
-      <c r="D21">
         <v>450</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22">
-        <v>150</v>
-      </c>
-      <c r="D22">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23">
-        <v>150</v>
-      </c>
-      <c r="D23">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24">
-        <v>150</v>
-      </c>
-      <c r="D24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25">
-        <v>150</v>
-      </c>
-      <c r="D25">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26">
-        <v>150</v>
-      </c>
-      <c r="D26">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27">
-        <v>150</v>
-      </c>
-      <c r="D27">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28">
-        <v>150</v>
-      </c>
-      <c r="D28">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29">
-        <v>150</v>
-      </c>
-      <c r="D29">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30">
-        <v>150</v>
-      </c>
-      <c r="D30">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>150</v>
-      </c>
-      <c r="D31">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32">
-        <v>150</v>
-      </c>
-      <c r="D32">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>150</v>
-      </c>
-      <c r="D33">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34">
-        <v>150</v>
-      </c>
-      <c r="D34">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35">
-        <v>150</v>
-      </c>
-      <c r="D35">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36">
-        <v>150</v>
-      </c>
-      <c r="D36">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37">
-        <v>150</v>
-      </c>
-      <c r="D37">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>150</v>
-      </c>
-      <c r="D38">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39">
-        <v>150</v>
-      </c>
-      <c r="D39">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40">
-        <v>150</v>
-      </c>
-      <c r="D40">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41">
-        <v>150</v>
-      </c>
-      <c r="D41">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42">
-        <v>150</v>
-      </c>
-      <c r="D42">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
-        <v>150</v>
-      </c>
-      <c r="D43">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>29</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44">
-        <v>150</v>
-      </c>
-      <c r="D44">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>29</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45">
-        <v>150</v>
-      </c>
-      <c r="D45">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46">
-        <v>150</v>
-      </c>
-      <c r="D46">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>23</v>
-      </c>
-      <c r="B47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C47">
-        <v>150</v>
-      </c>
-      <c r="D47">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48">
-        <v>150</v>
-      </c>
-      <c r="D48">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>23</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49">
-        <v>150</v>
-      </c>
-      <c r="D49">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>150</v>
-      </c>
-      <c r="D50">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51">
-        <v>150</v>
-      </c>
-      <c r="D51">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52">
-        <v>150</v>
-      </c>
-      <c r="D52">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
-      <c r="B53" t="s">
-        <v>25</v>
-      </c>
-      <c r="C53">
-        <v>150</v>
-      </c>
-      <c r="D53">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54">
-        <v>150</v>
-      </c>
-      <c r="D54">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>23</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C55">
-        <v>150</v>
-      </c>
-      <c r="D55">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>23</v>
-      </c>
-      <c r="B56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C56">
-        <v>150</v>
-      </c>
-      <c r="D56">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>23</v>
-      </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <v>150</v>
-      </c>
-      <c r="D57">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>23</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58">
-        <v>150</v>
-      </c>
-      <c r="D58">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C59">
-        <v>150</v>
-      </c>
-      <c r="D59">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>23</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C60">
-        <v>150</v>
-      </c>
-      <c r="D60">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>23</v>
-      </c>
-      <c r="B61" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61">
-        <v>150</v>
-      </c>
-      <c r="D61">
-        <v>450</v>
-      </c>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="1"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/menu/menus.xlsx
+++ b/src/assets/menu/menus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
   <si>
     <t>title</t>
   </si>
@@ -146,6 +146,15 @@
   </si>
   <si>
     <t>Start Sarmientos Chardonnay. Tarapaca</t>
+  </si>
+  <si>
+    <t>sldtr1</t>
+  </si>
+  <si>
+    <t>rdwnpg1</t>
+  </si>
+  <si>
+    <t>article</t>
   </si>
 </sst>
 </file>
@@ -466,207 +475,257 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>500</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>250</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>16</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>18</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>19</v>
       </c>
-      <c r="D14">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>20</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>21</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>500</v>
       </c>
     </row>
@@ -678,255 +737,305 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
-        <v>150</v>
-      </c>
       <c r="D2">
         <v>150</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3">
-        <v>1500</v>
       </c>
       <c r="D3">
         <v>1500</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4">
-        <v>150</v>
-      </c>
       <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
         <v>250</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5">
-        <v>150</v>
-      </c>
       <c r="D5">
+        <v>150</v>
+      </c>
+      <c r="E5">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6">
-        <v>150</v>
-      </c>
       <c r="D6">
+        <v>150</v>
+      </c>
+      <c r="E6">
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="C7">
-        <v>150</v>
-      </c>
       <c r="D7">
+        <v>150</v>
+      </c>
+      <c r="E7">
         <v>450</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>150</v>
-      </c>
       <c r="D8">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>39</v>
       </c>
-      <c r="C9">
-        <v>150</v>
-      </c>
       <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
         <v>29</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
       <c r="D10">
+        <v>150</v>
+      </c>
+      <c r="E10">
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
         <v>29</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>37</v>
       </c>
-      <c r="C11">
-        <v>150</v>
-      </c>
       <c r="D11">
+        <v>150</v>
+      </c>
+      <c r="E11">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
         <v>29</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="C12">
-        <v>150</v>
-      </c>
       <c r="D12">
+        <v>150</v>
+      </c>
+      <c r="E12">
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13">
-        <v>150</v>
-      </c>
       <c r="D13">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>35</v>
       </c>
-      <c r="C14">
-        <v>150</v>
-      </c>
       <c r="D14">
+        <v>150</v>
+      </c>
+      <c r="E14">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="C15">
-        <v>150</v>
-      </c>
       <c r="D15">
+        <v>150</v>
+      </c>
+      <c r="E15">
         <v>300</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="C16">
-        <v>150</v>
-      </c>
       <c r="D16">
+        <v>150</v>
+      </c>
+      <c r="E16">
         <v>350</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="C17">
-        <v>150</v>
-      </c>
       <c r="D17">
+        <v>150</v>
+      </c>
+      <c r="E17">
         <v>450</v>
       </c>
     </row>
